--- a/korea_administrative_division_latitude_longitude.xlsx
+++ b/korea_administrative_division_latitude_longitude.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\OneDrive\바탕 화면\SW-AI 캠프\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\OneDrive\바탕 화면\SW-AI 캠프\project\SW-AI-group-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864530CB-8C56-4CFE-9E3F-D687E6A29989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDC402A-9254-46A0-AA6F-092D7AA80D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1044,11 +1044,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>시군구</t>
+    <t>do</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>도</t>
+    <t>city</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2021,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="Q152" sqref="Q152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2032,10 +2032,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" t="s">
         <v>337</v>
-      </c>
-      <c r="B1" t="s">
-        <v>336</v>
       </c>
       <c r="C1" t="s">
         <v>335</v>
